--- a/data/myexcel.xlsx
+++ b/data/myexcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\pythonEconometrics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A058AF-4561-4FE7-B9E6-8ACEF257B867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DAC436-12E6-4E06-94EB-9D09262FDEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="950" yWindow="1140" windowWidth="18250" windowHeight="8430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -413,9 +413,25 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>99</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>77</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>